--- a/exemple.xlsx
+++ b/exemple.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a73782\Documents\wikithon\exemple\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A73782\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2730D157-02AB-4606-832C-99D6451216ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE3C918A-5CBA-449E-9CC9-2BF434792C08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DB32BC26-B001-46B2-AB1D-04F8CEDBCF78}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="21000" xr2:uid="{5BE53CEA-6119-45A0-AAD4-ABDE69F56C8F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -393,423 +395,390 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A94B48-09C9-4F78-B6DC-253D535FB08C}">
-  <dimension ref="A1:C34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB32704-1F46-40A6-BA14-D25168B5636B}">
+  <dimension ref="D9:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="9" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="10" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D10">
         <v>1.5</v>
       </c>
-      <c r="B2">
+      <c r="E10">
         <v>133</v>
       </c>
-      <c r="C2">
+      <c r="F10">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>$A$2+A2</f>
+    <row r="11" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="E11">
         <v>131</v>
       </c>
-      <c r="C3">
+      <c r="F11">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A34" si="0">$A$2+A3</f>
+    <row r="12" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D12">
         <v>4.5</v>
       </c>
-      <c r="B4">
+      <c r="E12">
         <v>134</v>
       </c>
-      <c r="C4">
+      <c r="F12">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
+    <row r="13" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D13">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="E13">
         <v>136</v>
       </c>
-      <c r="C5">
+      <c r="F13">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
+    <row r="14" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D14">
         <v>7.5</v>
       </c>
-      <c r="B6">
+      <c r="E14">
         <v>135</v>
       </c>
-      <c r="C6">
+      <c r="F14">
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
+    <row r="15" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D15">
         <v>9</v>
       </c>
-      <c r="B7">
+      <c r="E15">
         <v>130</v>
       </c>
-      <c r="C7">
+      <c r="F15">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
+    <row r="16" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D16">
         <v>10.5</v>
       </c>
-      <c r="B8">
+      <c r="E16">
         <v>131</v>
       </c>
-      <c r="C8">
+      <c r="F16">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D17">
         <v>12</v>
       </c>
-      <c r="B9">
+      <c r="E17">
         <v>135</v>
       </c>
-      <c r="C9">
+      <c r="F17">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <f t="shared" si="0"/>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
         <v>13.5</v>
       </c>
-      <c r="B10">
+      <c r="E18">
         <v>138</v>
       </c>
-      <c r="C10">
+      <c r="F18">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" si="0"/>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D19">
         <v>15</v>
       </c>
-      <c r="B11">
+      <c r="E19">
         <v>135</v>
       </c>
-      <c r="C11">
+      <c r="F19">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <f t="shared" si="0"/>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D20">
         <v>16.5</v>
       </c>
-      <c r="B12">
+      <c r="E20">
         <v>137</v>
       </c>
-      <c r="C12">
+      <c r="F20">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <f t="shared" si="0"/>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D21">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="E21">
         <v>139</v>
       </c>
-      <c r="C13">
+      <c r="F21">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <f t="shared" si="0"/>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D22">
         <v>19.5</v>
       </c>
-      <c r="B14">
+      <c r="E22">
         <v>141</v>
       </c>
-      <c r="C14">
+      <c r="F22">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <f t="shared" si="0"/>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D23">
         <v>21</v>
       </c>
-      <c r="B15">
+      <c r="E23">
         <v>139</v>
       </c>
-      <c r="C15">
+      <c r="F23">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <f t="shared" si="0"/>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D24">
         <v>22.5</v>
       </c>
-      <c r="B16">
+      <c r="E24">
         <v>144</v>
       </c>
-      <c r="C16">
+      <c r="F24">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <f t="shared" si="0"/>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D25">
         <v>24</v>
       </c>
-      <c r="B17">
+      <c r="E25">
         <v>147</v>
       </c>
-      <c r="C17">
+      <c r="F25">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <f t="shared" si="0"/>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D26">
         <v>25.5</v>
       </c>
-      <c r="B18">
+      <c r="E26">
         <v>145</v>
       </c>
-      <c r="C18">
+      <c r="F26">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <f t="shared" si="0"/>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D27">
         <v>27</v>
       </c>
-      <c r="B19">
+      <c r="E27">
         <v>147</v>
       </c>
-      <c r="C19">
+      <c r="F27">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <f t="shared" si="0"/>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D28">
         <v>28.5</v>
       </c>
-      <c r="B20">
+      <c r="E28">
         <v>149</v>
       </c>
-      <c r="C20">
+      <c r="F28">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <f t="shared" si="0"/>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D29">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="E29">
         <v>148</v>
       </c>
-      <c r="C21">
+      <c r="F29">
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <f t="shared" si="0"/>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D30">
         <v>31.5</v>
       </c>
-      <c r="B22">
+      <c r="E30">
         <v>149</v>
       </c>
-      <c r="C22">
+      <c r="F30">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <f t="shared" si="0"/>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D31">
         <v>33</v>
       </c>
-      <c r="B23">
+      <c r="E31">
         <v>149</v>
       </c>
-      <c r="C23">
+      <c r="F31">
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <f t="shared" si="0"/>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D32">
         <v>34.5</v>
       </c>
-      <c r="B24">
+      <c r="E32">
         <v>151</v>
       </c>
-      <c r="C24">
+      <c r="F32">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <f t="shared" si="0"/>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D33">
         <v>36</v>
       </c>
-      <c r="B25">
+      <c r="E33">
         <v>152</v>
       </c>
-      <c r="C25">
+      <c r="F33">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <f t="shared" si="0"/>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D34">
         <v>37.5</v>
       </c>
-      <c r="B26">
+      <c r="E34">
         <v>150</v>
       </c>
-      <c r="C26">
+      <c r="F34">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <f t="shared" si="0"/>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D35">
         <v>39</v>
       </c>
-      <c r="B27">
+      <c r="E35">
         <v>148</v>
       </c>
-      <c r="C27">
+      <c r="F35">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <f t="shared" si="0"/>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36">
         <v>40.5</v>
       </c>
-      <c r="B28">
+      <c r="E36">
         <v>90</v>
       </c>
-      <c r="C28">
+      <c r="F36">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <f t="shared" si="0"/>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37">
         <v>42</v>
       </c>
-      <c r="B29">
+      <c r="E37">
         <v>153</v>
       </c>
-      <c r="C29">
+      <c r="F37">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <f t="shared" si="0"/>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D38">
         <v>43.5</v>
       </c>
-      <c r="B30">
+      <c r="E38">
         <v>152</v>
       </c>
-      <c r="C30">
+      <c r="F38">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <f t="shared" si="0"/>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D39">
         <v>45</v>
       </c>
-      <c r="B31">
+      <c r="E39">
         <v>153</v>
       </c>
-      <c r="C31">
+      <c r="F39">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <f t="shared" si="0"/>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D40">
         <v>46.5</v>
       </c>
-      <c r="B32">
+      <c r="E40">
         <v>148</v>
       </c>
-      <c r="C32">
+      <c r="F40">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <f t="shared" si="0"/>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D41">
         <v>48</v>
       </c>
-      <c r="B33">
+      <c r="E41">
         <v>149</v>
       </c>
-      <c r="C33">
+      <c r="F41">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <f t="shared" si="0"/>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D42">
         <v>49.5</v>
       </c>
-      <c r="B34">
+      <c r="E42">
         <v>151</v>
       </c>
-      <c r="C34">
+      <c r="F42">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>